--- a/data/farmers.xlsx
+++ b/data/farmers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,14 +456,61 @@
           <t>Ravi</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>9876543210</t>
-        </is>
+      <c r="B2" t="n">
+        <v>9876543210</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Muzaffarpur</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>neil</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0987654321</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>hyderabad</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>neil</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0987654321</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>hyderabad</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>tedst</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>delhi</t>
         </is>
       </c>
     </row>

--- a/data/farmers.xlsx
+++ b/data/farmers.xlsx
@@ -61,7 +61,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -125,10 +125,10 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -450,7 +450,7 @@
     <col min="3" max="3" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,7 +461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -494,7 +494,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>

--- a/data/farmers.xlsx
+++ b/data/farmers.xlsx
@@ -51,7 +51,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,12 +62,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -114,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -126,9 +120,6 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -445,9 +436,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -472,22 +463,22 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
